--- a/fixtures/expected_basic_inline/output.xlsx
+++ b/fixtures/expected_basic_inline/output.xlsx
@@ -360,32 +360,32 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>releaseDate</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>developer_name</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>rating_code</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>rating_name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>releaseDate</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>title</t>
         </is>
       </c>
     </row>
@@ -400,32 +400,32 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A Game</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2015-01-01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>deva</t>
         </is>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Everyone</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2015-01-01</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>A Game</t>
         </is>
       </c>
     </row>
@@ -440,32 +440,32 @@
           <t>2</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>B Game</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2016-01-01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>devb</t>
         </is>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Everyone</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2016-01-01</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B Game</t>
         </is>
       </c>
     </row>
